--- a/artfynd/A 12291-2022.xlsx
+++ b/artfynd/A 12291-2022.xlsx
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101756251</v>
+        <v>101755391</v>
       </c>
       <c r="B4" t="n">
         <v>89356</v>
@@ -943,14 +943,14 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Malung-Sälen, Dlr</t>
+          <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>429682.9651049906</v>
+        <v>429741.5896872302</v>
       </c>
       <c r="R4" t="n">
-        <v>6696801.700275921</v>
+        <v>6697067.964345447</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101755391</v>
+        <v>101755025</v>
       </c>
       <c r="B5" t="n">
-        <v>89356</v>
+        <v>81236</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>429741.5896872302</v>
+        <v>429717.9095258462</v>
       </c>
       <c r="R5" t="n">
-        <v>6697067.964345447</v>
+        <v>6697046.675706697</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101756113</v>
+        <v>101755551</v>
       </c>
       <c r="B6" t="n">
-        <v>89356</v>
+        <v>77595</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,35 +1148,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>6450</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Malung-Sälen, Dlr</t>
+          <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>429638.0907752479</v>
+        <v>429704.9113564686</v>
       </c>
       <c r="R6" t="n">
-        <v>6696810.972668471</v>
+        <v>6697065.708989455</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101755025</v>
+        <v>101755564</v>
       </c>
       <c r="B7" t="n">
-        <v>81236</v>
+        <v>96354</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,39 +1257,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>221952</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>429717.9095258462</v>
+        <v>429702.9127085466</v>
       </c>
       <c r="R7" t="n">
-        <v>6697046.675706697</v>
+        <v>6697064.75919517</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1358,10 +1359,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101755551</v>
+        <v>101755546</v>
       </c>
       <c r="B8" t="n">
-        <v>77595</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1371,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6450</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>429704.9113564686</v>
+        <v>429708.9469202782</v>
       </c>
       <c r="R8" t="n">
-        <v>6697065.708989455</v>
+        <v>6697069.584840851</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1471,10 +1472,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101755564</v>
+        <v>101755039</v>
       </c>
       <c r="B9" t="n">
-        <v>96354</v>
+        <v>93044</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1488,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221952</v>
+        <v>2809</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,10 +1514,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>429702.9127085466</v>
+        <v>429718.9279856171</v>
       </c>
       <c r="R9" t="n">
-        <v>6697064.75919517</v>
+        <v>6697048.138746137</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1585,10 +1586,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101755546</v>
+        <v>101755379</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>73631</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1597,25 +1598,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1626,10 +1627,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>429708.9469202782</v>
+        <v>429736.3755743605</v>
       </c>
       <c r="R10" t="n">
-        <v>6697069.584840851</v>
+        <v>6697079.927263182</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1698,10 +1699,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101755039</v>
+        <v>101755540</v>
       </c>
       <c r="B11" t="n">
-        <v>93044</v>
+        <v>89356</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,36 +1715,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2809</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>429718.9279856171</v>
+        <v>429711.9257505627</v>
       </c>
       <c r="R11" t="n">
-        <v>6697048.138746137</v>
+        <v>6697070.021405878</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101756082</v>
+        <v>101755234</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>77756</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1824,39 +1824,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>6459</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Malung-Sälen, Dlr</t>
+          <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>429648.0177523758</v>
+        <v>429731.7303993647</v>
       </c>
       <c r="R12" t="n">
-        <v>6696812.263122837</v>
+        <v>6697070.132200243</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101755379</v>
+        <v>101756251</v>
       </c>
       <c r="B13" t="n">
-        <v>73631</v>
+        <v>89356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1941,35 +1941,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6426</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Avradsberg, Malung-Sälen, Dlr</t>
+          <t>Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>429736.3755743605</v>
+        <v>429682.9651049906</v>
       </c>
       <c r="R13" t="n">
-        <v>6697079.927263182</v>
+        <v>6696801.700275921</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101755540</v>
+        <v>101756113</v>
       </c>
       <c r="B14" t="n">
         <v>89356</v>
@@ -2075,14 +2075,14 @@
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Avradsberg, Malung-Sälen, Dlr</t>
+          <t>Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>429711.9257505627</v>
+        <v>429638.0907752479</v>
       </c>
       <c r="R14" t="n">
-        <v>6697070.021405878</v>
+        <v>6696810.972668471</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101755234</v>
+        <v>101756082</v>
       </c>
       <c r="B15" t="n">
-        <v>77756</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2163,39 +2163,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6459</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Avradsberg, Malung-Sälen, Dlr</t>
+          <t>Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>429731.7303993647</v>
+        <v>429648.0177523758</v>
       </c>
       <c r="R15" t="n">
-        <v>6697070.132200243</v>
+        <v>6696812.263122837</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>

--- a/artfynd/A 12291-2022.xlsx
+++ b/artfynd/A 12291-2022.xlsx
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101755391</v>
+        <v>101756251</v>
       </c>
       <c r="B4" t="n">
         <v>89356</v>
@@ -943,14 +943,14 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Avradsberg, Malung-Sälen, Dlr</t>
+          <t>Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>429741.5896872302</v>
+        <v>429682.9651049906</v>
       </c>
       <c r="R4" t="n">
-        <v>6697067.964345447</v>
+        <v>6696801.700275921</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101755025</v>
+        <v>101755391</v>
       </c>
       <c r="B5" t="n">
-        <v>81236</v>
+        <v>89356</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>429717.9095258462</v>
+        <v>429741.5896872302</v>
       </c>
       <c r="R5" t="n">
-        <v>6697046.675706697</v>
+        <v>6697067.964345447</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101755551</v>
+        <v>101756113</v>
       </c>
       <c r="B6" t="n">
-        <v>77595</v>
+        <v>89356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,35 +1148,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6450</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Avradsberg, Malung-Sälen, Dlr</t>
+          <t>Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>429704.9113564686</v>
+        <v>429638.0907752479</v>
       </c>
       <c r="R6" t="n">
-        <v>6697065.708989455</v>
+        <v>6696810.972668471</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101755564</v>
+        <v>101755025</v>
       </c>
       <c r="B7" t="n">
-        <v>96354</v>
+        <v>81236</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,40 +1257,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221952</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>429702.9127085466</v>
+        <v>429717.9095258462</v>
       </c>
       <c r="R7" t="n">
-        <v>6697064.75919517</v>
+        <v>6697046.675706697</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1359,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101755546</v>
+        <v>101755551</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>77595</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1371,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>429708.9469202782</v>
+        <v>429704.9113564686</v>
       </c>
       <c r="R8" t="n">
-        <v>6697069.584840851</v>
+        <v>6697065.708989455</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1472,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101755039</v>
+        <v>101755564</v>
       </c>
       <c r="B9" t="n">
-        <v>93044</v>
+        <v>96354</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2809</v>
+        <v>221952</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1514,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>429718.9279856171</v>
+        <v>429702.9127085466</v>
       </c>
       <c r="R9" t="n">
-        <v>6697048.138746137</v>
+        <v>6697064.75919517</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1586,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101755379</v>
+        <v>101755546</v>
       </c>
       <c r="B10" t="n">
-        <v>73631</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1598,25 +1597,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1627,10 +1626,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>429736.3755743605</v>
+        <v>429708.9469202782</v>
       </c>
       <c r="R10" t="n">
-        <v>6697079.927263182</v>
+        <v>6697069.584840851</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1699,10 +1698,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101755540</v>
+        <v>101755039</v>
       </c>
       <c r="B11" t="n">
-        <v>89356</v>
+        <v>93044</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1715,35 +1714,36 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>2809</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>429711.9257505627</v>
+        <v>429718.9279856171</v>
       </c>
       <c r="R11" t="n">
-        <v>6697070.021405878</v>
+        <v>6697048.138746137</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101755234</v>
+        <v>101756082</v>
       </c>
       <c r="B12" t="n">
-        <v>77756</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1824,39 +1824,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6459</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Avradsberg, Malung-Sälen, Dlr</t>
+          <t>Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>429731.7303993647</v>
+        <v>429648.0177523758</v>
       </c>
       <c r="R12" t="n">
-        <v>6697070.132200243</v>
+        <v>6696812.263122837</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101756251</v>
+        <v>101755379</v>
       </c>
       <c r="B13" t="n">
-        <v>89356</v>
+        <v>73631</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1941,35 +1941,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>6426</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Malung-Sälen, Dlr</t>
+          <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>429682.9651049906</v>
+        <v>429736.3755743605</v>
       </c>
       <c r="R13" t="n">
-        <v>6696801.700275921</v>
+        <v>6697079.927263182</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101756113</v>
+        <v>101755540</v>
       </c>
       <c r="B14" t="n">
         <v>89356</v>
@@ -2075,14 +2075,14 @@
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Malung-Sälen, Dlr</t>
+          <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>429638.0907752479</v>
+        <v>429711.9257505627</v>
       </c>
       <c r="R14" t="n">
-        <v>6696810.972668471</v>
+        <v>6697070.021405878</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101756082</v>
+        <v>101755234</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>77756</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2163,39 +2163,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>6459</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Malung-Sälen, Dlr</t>
+          <t>Avradsberg, Malung-Sälen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>429648.0177523758</v>
+        <v>429731.7303993647</v>
       </c>
       <c r="R15" t="n">
-        <v>6696812.263122837</v>
+        <v>6697070.132200243</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
